--- a/describe.xlsx
+++ b/describe.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="9330" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="数据类型" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="122">
   <si>
     <t>名称</t>
   </si>
@@ -400,13 +400,25 @@
   </si>
   <si>
     <t>回到郭飞的博客</t>
+  </si>
+  <si>
+    <t>回到统计学目录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回到统计学目录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回到统计学目录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +465,13 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -641,14 +660,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1630,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1649,7 +1668,7 @@
       <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1659,7 +1678,7 @@
       <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1667,7 +1686,7 @@
       <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
@@ -1675,7 +1694,7 @@
       <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -1685,7 +1704,7 @@
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="17" t="s">
         <v>5</v>
       </c>
@@ -1693,7 +1712,7 @@
       <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -1703,7 +1722,7 @@
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="17" t="s">
         <v>9</v>
       </c>
@@ -1711,7 +1730,7 @@
       <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="19" t="s">
         <v>10</v>
       </c>
@@ -1736,7 +1755,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -1753,7 +1772,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17" t="s">
         <v>18</v>
@@ -1766,7 +1785,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17" t="s">
         <v>108</v>
@@ -1779,7 +1798,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -1788,7 +1807,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="24"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -1797,7 +1816,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="25"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -1821,8 +1840,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="24" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="24" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1835,19 +1859,20 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A24" r:id="rId1"/>
+    <hyperlink ref="A25" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1971,26 +1996,32 @@
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="24" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="24" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A37" r:id="rId1"/>
+    <hyperlink ref="A38" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2151,14 +2182,20 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="24" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="24" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A18" r:id="rId1"/>
+    <hyperlink ref="A19" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
@@ -2166,10 +2203,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2226,14 +2263,20 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="24" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1"/>
+    <hyperlink ref="A9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2242,10 +2285,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2320,23 +2363,29 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="24" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId4">
-          <objectPr defaultSize="0" altText="" r:id="rId5">
+        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId5">
+          <objectPr defaultSize="0" altText="" r:id="rId6">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -2355,13 +2404,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId4"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId6">
-          <objectPr defaultSize="0" altText="" r:id="rId7">
+        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId7">
+          <objectPr defaultSize="0" altText="" r:id="rId8">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -2380,13 +2429,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId6"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId8">
-          <objectPr defaultSize="0" altText="" r:id="rId9">
+        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId9">
+          <objectPr defaultSize="0" altText="" r:id="rId10">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -2405,13 +2454,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId8"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId10">
-          <objectPr defaultSize="0" altText="" r:id="rId11">
+        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId11">
+          <objectPr defaultSize="0" altText="" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -2430,13 +2479,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId10"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId12">
-          <objectPr defaultSize="0" altText="" r:id="rId13">
+        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId13">
+          <objectPr defaultSize="0" altText="" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -2455,13 +2504,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId12"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId14">
-          <objectPr defaultSize="0" altText="" r:id="rId15">
+        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId15">
+          <objectPr defaultSize="0" altText="" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -2480,13 +2529,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId14"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId16">
-          <objectPr defaultSize="0" altText="" r:id="rId11">
+        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId17">
+          <objectPr defaultSize="0" altText="" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -2505,13 +2554,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId16"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId17">
-          <objectPr defaultSize="0" altText="" r:id="rId13">
+        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId18">
+          <objectPr defaultSize="0" altText="" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -2530,13 +2579,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId17"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId18">
-          <objectPr defaultSize="0" altText="" r:id="rId19">
+        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId19">
+          <objectPr defaultSize="0" altText="" r:id="rId20">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -2555,13 +2604,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId18"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2058" r:id="rId20">
-          <objectPr defaultSize="0" altText="" r:id="rId11">
+        <oleObject progId="Equation.KSEE3" shapeId="2058" r:id="rId21">
+          <objectPr defaultSize="0" altText="" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -2580,13 +2629,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2058" r:id="rId20"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2058" r:id="rId21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId21">
-          <objectPr defaultSize="0" altText="" r:id="rId22">
+        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId22">
+          <objectPr defaultSize="0" altText="" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -2605,7 +2654,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId21"/>
+        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId22"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -2614,10 +2663,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G1:J27"/>
+  <dimension ref="G1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2662,17 +2711,23 @@
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="24" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H28" s="24" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H27" r:id="rId1"/>
+    <hyperlink ref="H28" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/describe.xlsx
+++ b/describe.xlsx
@@ -694,31 +694,37 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>590940</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>49286</xdr:rowOff>
+      <xdr:rowOff>51873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>439810</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>113665</xdr:rowOff>
+      <xdr:rowOff>111077</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="4U4}40AZ@}POYXMZ6AKNPFW"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4034594" y="217805"/>
-          <a:ext cx="3981254" cy="2929206"/>
+          <a:off x="4034594" y="220392"/>
+          <a:ext cx="3981254" cy="2924031"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1651,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/describe.xlsx
+++ b/describe.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="119">
   <si>
     <t>名称</t>
   </si>
@@ -87,15 +87,6 @@
   </si>
   <si>
     <t>几何平均数</t>
-  </si>
-  <si>
-    <t>在最终的分析中，所有 知识皆为历史</t>
-  </si>
-  <si>
-    <t>在抽象的意义下，所有 科学皆为数学</t>
-  </si>
-  <si>
-    <t>在理性的世界里，所有判断皆为统计</t>
   </si>
   <si>
     <t>mean</t>
@@ -490,7 +481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -500,81 +491,136 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,74 +633,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -663,10 +643,103 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -700,7 +773,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>439810</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>111077</xdr:rowOff>
+      <xdr:rowOff>67115</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1658,201 +1731,196 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="25"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
-      <c r="B9" s="19" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-    </row>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="25"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="25"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="17" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="25"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="25"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="26"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20" t="s">
+    <row r="17" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="23" t="s">
-        <v>21</v>
-      </c>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="A22" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="24" t="s">
-        <v>118</v>
+      <c r="A24" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="24" t="s">
-        <v>119</v>
+      <c r="A25" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1877,138 +1945,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="31" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="B4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="B5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="32"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+      <c r="B6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="B7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+      <c r="B8" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="B9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
-        <v>42</v>
-      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="24" t="s">
-        <v>118</v>
+      <c r="A37" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="24" t="s">
-        <v>119</v>
+      <c r="A38" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2027,7 +2099,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2038,163 +2110,184 @@
     <col min="6" max="6" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="6" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+      <c r="D13" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="B14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B15" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="C15" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="24" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2222,60 +2315,60 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
-        <v>118</v>
+      <c r="A8" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="24" t="s">
-        <v>120</v>
+      <c r="A9" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2293,8 +2386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2307,75 +2400,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D2" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="89.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="89.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="G5" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="24" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2679,51 +2789,51 @@
   <sheetData>
     <row r="1" spans="7:10" x14ac:dyDescent="0.15">
       <c r="G1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="7:10" x14ac:dyDescent="0.15">
       <c r="G2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" t="s">
         <v>100</v>
-      </c>
-      <c r="H2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="7:10" x14ac:dyDescent="0.15">
       <c r="G3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" t="s">
         <v>104</v>
       </c>
-      <c r="H3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J3" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H27" s="24" t="s">
-        <v>118</v>
+      <c r="H27" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H28" s="24" t="s">
-        <v>119</v>
+      <c r="H28" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/describe.xlsx
+++ b/describe.xlsx
@@ -5,26 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guofei\Desktop\GitH\StatisticsBlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guofei\Desktop\GitHub\StatisticsBlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="9330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17870" windowHeight="9330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="数据类型" sheetId="1" r:id="rId1"/>
     <sheet name="描述性统计" sheetId="2" r:id="rId2"/>
     <sheet name="描述性绘图" sheetId="3" r:id="rId3"/>
     <sheet name="标准化" sheetId="4" r:id="rId4"/>
-    <sheet name="相关分析" sheetId="5" r:id="rId5"/>
-    <sheet name="RFM" sheetId="6" r:id="rId6"/>
+    <sheet name="RFM" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
   <si>
     <t>名称</t>
   </si>
@@ -258,60 +257,6 @@
   </si>
   <si>
     <t>Tukey正态分布打分</t>
-  </si>
-  <si>
-    <t>定义</t>
-  </si>
-  <si>
-    <t>特征</t>
-  </si>
-  <si>
-    <t>H0</t>
-  </si>
-  <si>
-    <t>统计量</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Pearson相关系数</t>
-  </si>
-  <si>
-    <t>成对的连续数据，接近正态的单峰分布</t>
-  </si>
-  <si>
-    <t>(-1,1)
--1:完全负相关
-1：完全正相关
-0：不相关</t>
-  </si>
-  <si>
-    <t>P小，拒绝原假设，认为有相关性</t>
-  </si>
-  <si>
-    <t>Spearman相关系数</t>
-  </si>
-  <si>
-    <t>成对的等级数据，无论分布</t>
-  </si>
-  <si>
-    <t>小样本：服从自由度n-2的Spearman分布
-大样本：</t>
-  </si>
-  <si>
-    <t>Kendall等级相关系数</t>
-  </si>
-  <si>
-    <t>（三种公式之一）
-是一种无参数检验法</t>
-  </si>
-  <si>
-    <t>（-1,1）</t>
-  </si>
-  <si>
-    <t>小样本：Kendall分布
-大样本：</t>
   </si>
   <si>
     <t>R</t>
@@ -391,10 +336,6 @@
   </si>
   <si>
     <t>回到郭飞的博客</t>
-  </si>
-  <si>
-    <t>回到统计学目录</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>回到统计学目录</t>
@@ -633,7 +574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -646,9 +587,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -744,8 +682,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
@@ -855,551 +793,6 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>2714625</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>800100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>1952625</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>857250</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2050" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2050"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>457200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>1609725</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>876300</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2051" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2051"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>381000</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>581025</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2052" name="Object 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2052"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1409700</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>723900</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2053" name="Object 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2053"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>2343150</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>352425</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>3067050</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>809625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2054" name="Object 6" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2054"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>419100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>619125</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2055" name="Object 7" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2055"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>676275</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>590550</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>2019300</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>1057275</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2056" name="Object 8" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2056"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>609600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2057" name="Object 9" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2057"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>428625</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2058" name="Object 10" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2058"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>542925</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1733550</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>1019175</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2059" name="Object 11" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2059"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1442,7 +835,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1730,197 +1123,197 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="34" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="16" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
-      <c r="B4" s="16" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="34" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="34"/>
-      <c r="B6" s="16" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="34" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="34"/>
-      <c r="B8" s="16" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="23" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="34" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="34"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="34"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="16" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="34"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="22" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="34"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="22" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24" t="s">
+    <row r="17" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1949,123 +1342,123 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="31" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="32"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="31" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="32"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="31" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="31" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="31"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="32"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="31" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="32"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="31" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="31"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="32"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="31" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="32"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -2073,14 +1466,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2102,41 +1495,41 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2145,10 +1538,10 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="3"/>
@@ -2159,48 +1552,48 @@
         <v>53</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="F7" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="3"/>
@@ -2209,85 +1602,85 @@
       <c r="E8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="14" t="s">
+      <c r="F9" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2308,12 +1701,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -2327,7 +1720,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -2335,7 +1728,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -2343,7 +1736,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -2351,24 +1744,24 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2383,457 +1776,62 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="47.25" customWidth="1"/>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="31.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="14"/>
-      <c r="B1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="89.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B9" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId5">
-          <objectPr defaultSize="0" altText="" r:id="rId6">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>2714625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>800100</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2049" r:id="rId5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId7">
-          <objectPr defaultSize="0" altText="" r:id="rId8">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>219075</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1952625</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>857250</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2050" r:id="rId7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId9">
-          <objectPr defaultSize="0" altText="" r:id="rId10">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>457200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1609725</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>876300</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2051" r:id="rId9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId11">
-          <objectPr defaultSize="0" altText="" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>381000</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>581025</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2052" r:id="rId11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId13">
-          <objectPr defaultSize="0" altText="" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1409700</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>723900</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2053" r:id="rId13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId15">
-          <objectPr defaultSize="0" altText="" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>2343150</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>352425</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>3067050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>809625</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2054" r:id="rId15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId17">
-          <objectPr defaultSize="0" altText="" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>419100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>619125</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2055" r:id="rId17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId18">
-          <objectPr defaultSize="0" altText="" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>590550</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>2019300</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>1057275</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2056" r:id="rId18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId19">
-          <objectPr defaultSize="0" altText="" r:id="rId20">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>609600</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2057" r:id="rId19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2058" r:id="rId21">
-          <objectPr defaultSize="0" altText="" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>428625</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2058" r:id="rId21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId22">
-          <objectPr defaultSize="0" altText="" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>542925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1733550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>1019175</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.KSEE3" shapeId="2059" r:id="rId22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="7:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="7:10" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="2" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H27" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H28" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
